--- a/planilhas.xlsx
+++ b/planilhas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42CC8390-8904-4EC7-BF88-9CFEC22D42B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF7E2D9B-DD51-421E-8AC5-D3AD9FD42F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela de Notas" sheetId="1" r:id="rId1"/>
@@ -1010,7 +1010,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 4" xfId="1" builtinId="19"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="92">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1354,6 +1354,36 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5524,7 +5554,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FFA18C29-4F6C-4B92-B1C0-8BC1A9D6DC29}" name="Tabela5" displayName="Tabela5" ref="A2:H32" totalsRowShown="0" headerRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FFA18C29-4F6C-4B92-B1C0-8BC1A9D6DC29}" name="Tabela5" displayName="Tabela5" ref="A2:H32" totalsRowShown="0" headerRowDxfId="59">
   <autoFilter ref="A2:H32" xr:uid="{FFA18C29-4F6C-4B92-B1C0-8BC1A9D6DC29}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5536,15 +5566,15 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A8E47D07-059E-4025-8E0E-C94C75B6A368}" name="Nome" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{89A3B477-6355-4E8B-A93A-92D59FB25F0F}" name="Sexo" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{7AF65BBB-C97B-4371-A995-0D8241CD7747}" name="Turma" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{3C8EA744-535F-4ED0-AE6B-87A91561AD11}" name="Nota 1" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{E1FBABE8-A7DA-473D-8069-7DD3CC9A5203}" name="Nota 2" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{DC49913C-24B9-4F35-B47F-F58C3F7F310F}" name="Média final" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{A8E47D07-059E-4025-8E0E-C94C75B6A368}" name="Nome" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{89A3B477-6355-4E8B-A93A-92D59FB25F0F}" name="Sexo" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{7AF65BBB-C97B-4371-A995-0D8241CD7747}" name="Turma" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{3C8EA744-535F-4ED0-AE6B-87A91561AD11}" name="Nota 1" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{E1FBABE8-A7DA-473D-8069-7DD3CC9A5203}" name="Nota 2" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{DC49913C-24B9-4F35-B47F-F58C3F7F310F}" name="Média final" dataDxfId="53">
       <calculatedColumnFormula>AVERAGE(D3:E3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{85C28137-EC34-432F-9487-51FB48EB5F9C}" name="Situação" dataDxfId="49">
+    <tableColumn id="7" xr3:uid="{85C28137-EC34-432F-9487-51FB48EB5F9C}" name="Situação" dataDxfId="52">
       <calculatedColumnFormula>IF(F3&gt;=6,"Aprovado","Reprovado")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{8F6FB9D8-261C-4798-B15B-765A4B78CC3A}" name="Média da turma 1"/>
@@ -5570,7 +5600,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A802FDE4-1FCA-48D9-A776-B93EEE75C13E}" name="Tabela8" displayName="Tabela8" ref="J3:M6" totalsRowShown="0" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A802FDE4-1FCA-48D9-A776-B93EEE75C13E}" name="Tabela8" displayName="Tabela8" ref="J3:M6" totalsRowShown="0" dataDxfId="51">
   <autoFilter ref="J3:M6" xr:uid="{A802FDE4-1FCA-48D9-A776-B93EEE75C13E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5579,23 +5609,23 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E910AF8D-9728-4638-95FD-9BE4FCCBBC41}" name="Média final das turmas"/>
-    <tableColumn id="2" xr3:uid="{37A4F333-0F63-4DE6-8A0F-0D4E3A6D78ED}" name="Coluna1" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{9B9E3E69-E4B5-41F9-B559-BABDFCF9E833}" name="Maior nota final" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{1498C53A-E091-4961-A6E3-298C7B14AD58}" name="Menor nota final" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{37A4F333-0F63-4DE6-8A0F-0D4E3A6D78ED}" name="Coluna1" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{9B9E3E69-E4B5-41F9-B559-BABDFCF9E833}" name="Maior nota final" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{1498C53A-E091-4961-A6E3-298C7B14AD58}" name="Menor nota final" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{17556782-F456-41AD-BC39-BD0CF23C0EF6}" name="Tabela15" displayName="Tabela15" ref="J9:K16" totalsRowShown="0" headerRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{17556782-F456-41AD-BC39-BD0CF23C0EF6}" name="Tabela15" displayName="Tabela15" ref="J9:K16" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="J9:K16" xr:uid="{17556782-F456-41AD-BC39-BD0CF23C0EF6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5B675061-8B50-41D8-903B-2B2668358F00}" name="Buscar  Aluno"/>
-    <tableColumn id="2" xr3:uid="{F8688CCB-78E7-4EED-BD86-398DF53AA549}" name="Coluna1" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{F8688CCB-78E7-4EED-BD86-398DF53AA549}" name="Coluna1" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7107,134 +7137,134 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B32">
-    <cfRule type="containsText" dxfId="88" priority="7" operator="containsText" text="Feminino">
+    <cfRule type="containsText" dxfId="91" priority="7" operator="containsText" text="Feminino">
       <formula>NOT(ISERROR(SEARCH("Feminino",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B22">
-    <cfRule type="containsText" dxfId="87" priority="8" operator="containsText" text="Masculino">
+    <cfRule type="containsText" dxfId="90" priority="8" operator="containsText" text="Masculino">
       <formula>NOT(ISERROR(SEARCH("Masculino",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:B44 B3:B19 B23:B32">
-    <cfRule type="containsText" dxfId="86" priority="30" operator="containsText" text="Masculino">
+    <cfRule type="containsText" dxfId="89" priority="30" operator="containsText" text="Masculino">
       <formula>NOT(ISERROR(SEARCH("Masculino",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:B44">
-    <cfRule type="containsText" dxfId="85" priority="29" operator="containsText" text="Feminino">
+    <cfRule type="containsText" dxfId="88" priority="29" operator="containsText" text="Feminino">
       <formula>NOT(ISERROR(SEARCH("Feminino",B42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:F32">
-    <cfRule type="cellIs" dxfId="84" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="5" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="86" priority="6" operator="greaterThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:F44">
-    <cfRule type="cellIs" dxfId="82" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="27" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="84" priority="28" operator="greaterThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="80" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="33" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="82" priority="42" operator="greaterThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G19 G42:G44">
-    <cfRule type="cellIs" dxfId="78" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="90" operator="equal">
       <formula>"Reprovado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="91" operator="equal">
       <formula>"Aprovado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G22">
-    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="Aprovado">
+    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="Aprovado">
       <formula>NOT(ISERROR(SEARCH("Aprovado",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="2" operator="containsText" text="Reprovado">
+    <cfRule type="containsText" dxfId="78" priority="2" operator="containsText" text="Reprovado">
       <formula>NOT(ISERROR(SEARCH("Reprovado",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:G32">
-    <cfRule type="cellIs" dxfId="74" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="58" operator="equal">
       <formula>"Reprovado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="59" operator="equal">
       <formula>"Aprovado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="72" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="43" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="44" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="74" priority="44" operator="greaterThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="70" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="45" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="72" priority="46" operator="greaterThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="68" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="13" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="70" priority="14" operator="greaterThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6">
-    <cfRule type="cellIs" dxfId="66" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="40" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="41" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="68" priority="41" operator="greaterThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="64" priority="17" operator="containsText" text="Feminino">
+    <cfRule type="containsText" dxfId="67" priority="17" operator="containsText" text="Feminino">
       <formula>NOT(ISERROR(SEARCH("Feminino",K11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="18" operator="containsText" text="Masculino">
+    <cfRule type="containsText" dxfId="66" priority="18" operator="containsText" text="Masculino">
       <formula>NOT(ISERROR(SEARCH("Masculino",K11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K15">
-    <cfRule type="cellIs" dxfId="62" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="20" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="64" priority="21" operator="greaterThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="Reprovado">
+    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="Reprovado">
       <formula>NOT(ISERROR(SEARCH("Reprovado",K16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="16" operator="containsText" text="Aprovado">
+    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="Aprovado">
       <formula>NOT(ISERROR(SEARCH("Aprovado",K16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:M6">
-    <cfRule type="cellIs" dxfId="58" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="31" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="32" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="60" priority="32" operator="greaterThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7503,8 +7533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72692129-1F69-4B53-B4E6-21FACB28C22E}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7514,8 +7544,7 @@
     <col min="3" max="3" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="6" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
@@ -7586,7 +7615,7 @@
         <v>77</v>
       </c>
       <c r="G3" s="30">
-        <v>45318</v>
+        <v>45301</v>
       </c>
       <c r="I3" s="37" t="s">
         <v>78</v>
@@ -7619,8 +7648,8 @@
         <v>83</v>
       </c>
       <c r="G4" s="12" t="str">
-        <f>IFERROR(VLOOKUP(G3,A1:E23,2,FALSE),"A data não consta na tabela")</f>
-        <v>A data não consta na tabela</v>
+        <f>IFERROR(VLOOKUP(G3,A1:E23,2,FALSE),"data não consta na tabela")</f>
+        <v>Quarta</v>
       </c>
       <c r="I4" s="37" t="s">
         <v>84</v>
@@ -7651,7 +7680,7 @@
         <v>66</v>
       </c>
       <c r="G5" s="5" t="str">
-        <f>IFERROR(VLOOKUP(G3,A2:E32,3,FALSE),"Dia não encontrado")</f>
+        <f>IFERROR(VLOOKUP(G3,A2:E32,3,FALSE),"erro")</f>
         <v>Dia útil</v>
       </c>
       <c r="I5" s="37" t="s">
@@ -7683,9 +7712,9 @@
       <c r="F6" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="31" t="str">
-        <f>IFERROR(VLOOKUP(G3,A1:E23,4,FALSE),"Data não encontrada")</f>
-        <v>Data não encontrada</v>
+      <c r="G6" s="31">
+        <f>IFERROR(VLOOKUP(G3,A1:E23,4,FALSE),"erro")</f>
+        <v>100</v>
       </c>
       <c r="I6" s="37" t="s">
         <v>91</v>
@@ -8222,83 +8251,98 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C32">
-    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="Dia útil">
+    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="Dia útil">
       <formula>NOT(ISERROR(SEARCH("Dia útil",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D32">
-    <cfRule type="containsText" dxfId="41" priority="26" operator="containsText" text="Falta">
+    <cfRule type="containsText" dxfId="44" priority="29" operator="containsText" text="Falta">
       <formula>NOT(ISERROR(SEARCH("Falta",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D32">
-    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="-">
+    <cfRule type="containsText" dxfId="43" priority="28" operator="containsText" text="-">
       <formula>NOT(ISERROR(SEARCH("-",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="39" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="30" operator="lessThan">
       <formula>$E$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="28" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="31" operator="greaterThanOrEqual">
       <formula>$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="17" operator="equal">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="36" priority="10" operator="containsText" text="Folga">
+    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="Folga">
       <formula>NOT(ISERROR(SEARCH("Folga",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="Dia útil">
+    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="Dia útil">
       <formula>NOT(ISERROR(SEARCH("Dia útil",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="lessThan">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="greaterThanOrEqual">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="NÂO">
+    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="NÂO">
       <formula>NOT(ISERROR(SEARCH("NÂO",K10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="SIM">
+    <cfRule type="containsText" dxfId="34" priority="10" operator="containsText" text="SIM">
       <formula>NOT(ISERROR(SEARCH("SIM",K10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="Feriado">
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="Feriado">
       <formula>NOT(ISERROR(SEARCH("Feriado",E22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="Dia útil">
+    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="Dia útil">
       <formula>NOT(ISERROR(SEARCH("Dia útil",E22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="Falta">
+    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="Falta">
       <formula>NOT(ISERROR(SEARCH("Falta",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C32">
-    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="Folga">
+    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Folga">
       <formula>NOT(ISERROR(SEARCH("Folga",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="-">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="-">
       <formula>NOT(ISERROR(SEARCH("-",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="-">
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="-">
       <formula>NOT(ISERROR(SEARCH("-",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="erro">
+      <formula>NOT(ISERROR(SEARCH("erro",G6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="erro">
+      <formula>NOT(ISERROR(SEARCH("erro",G5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="data não consta na tabela">
+      <formula>NOT(ISERROR(SEARCH("data não consta na tabela",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -9919,7 +9963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6ADB39-A00B-4604-81B9-AD7CA6A4C65B}">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
